--- a/game_excel/artifactunlock.xlsx
+++ b/game_excel/artifactunlock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>int</t>
   </si>
@@ -206,6 +206,84 @@
   <si>
     <t>黄金圣衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundRGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器显示的RGB数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,255,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,255,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_A1001ldj_01</t>
+  </si>
+  <si>
+    <t>panel_A1002lszc_01</t>
+  </si>
+  <si>
+    <t>panel_A1003ygdg_01</t>
+  </si>
+  <si>
+    <t>panel_A1004pf_01</t>
+  </si>
+  <si>
+    <t>panel_A1005szj_01</t>
+  </si>
+  <si>
+    <t>panel_A1007jlq_01</t>
+  </si>
+  <si>
+    <t>panel_A1008xyj_01</t>
+  </si>
+  <si>
+    <t>panel_A1010yhzq_01</t>
+  </si>
+  <si>
+    <t>panel_A1006wxst_01</t>
+  </si>
+  <si>
+    <t>panel_A1009hjsy_01</t>
   </si>
 </sst>
 </file>
@@ -267,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +356,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,13 +656,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -594,9 +675,11 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,8 +704,14 @@
       <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +736,14 @@
       <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,8 +768,14 @@
       <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -699,13 +800,19 @@
       <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,8 +837,14 @@
       <c r="I6" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -756,8 +869,14 @@
       <c r="I7" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -782,8 +901,14 @@
       <c r="I8" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -808,8 +933,14 @@
       <c r="I9" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,8 +965,14 @@
       <c r="I10" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -860,8 +997,14 @@
       <c r="I11" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -889,8 +1032,14 @@
       <c r="I12" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -918,8 +1067,14 @@
       <c r="I13" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -944,8 +1099,14 @@
       <c r="I14" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -972,6 +1133,12 @@
       </c>
       <c r="I15" s="2">
         <v>80</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/game_excel/artifactunlock.xlsx
+++ b/game_excel/artifactunlock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>int</t>
   </si>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,1800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0的索引为隐藏，其他从小到大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,22 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShowLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,15 +196,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel_A1001ldj_01</t>
+  </si>
+  <si>
+    <t>panel_A1002lszc_01</t>
+  </si>
+  <si>
+    <t>panel_A1003ygdg_01</t>
+  </si>
+  <si>
+    <t>panel_A1004pf_01</t>
+  </si>
+  <si>
+    <t>panel_A1005szj_01</t>
+  </si>
+  <si>
+    <t>panel_A1007jlq_01</t>
+  </si>
+  <si>
+    <t>panel_A1008xyj_01</t>
+  </si>
+  <si>
+    <t>panel_A1010yhzq_01</t>
+  </si>
+  <si>
+    <t>panel_A1006wxst_01</t>
+  </si>
+  <si>
+    <t>panel_A1009hjsy_01</t>
+  </si>
+  <si>
+    <t>25,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>神器显示的RGB数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>255,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255,255,0</t>
+    <t>209,120,0,80|255,100,25,128|255,0,0,60</t>
+  </si>
+  <si>
+    <t>255,221,61,80|255,184,0,128|255,85,0,60</t>
+  </si>
+  <si>
+    <t>128,18,0,80|164,19,0,128|255,23,0,60</t>
+  </si>
+  <si>
+    <t>26,130,31,80|0,183,31,128|0,224,0,60</t>
+  </si>
+  <si>
+    <t>90,0,130,80|172,83,255,128|233,0,255,60</t>
+  </si>
+  <si>
+    <t>255,95,144,80|255,97,198,128|255,0,95,60</t>
+  </si>
+  <si>
+    <t>45,0,51,80|77,21,76,128|72,0,84,60</t>
+  </si>
+  <si>
+    <t>fx_a_select_ldj</t>
+  </si>
+  <si>
+    <t>fx_a_select_lszc</t>
+  </si>
+  <si>
+    <t>fx_a_select_szj</t>
+  </si>
+  <si>
+    <t>fx_a_select_ygdg</t>
+  </si>
+  <si>
+    <t>fx_a_select_hjsy</t>
+  </si>
+  <si>
+    <t>fx_a_select_wxst</t>
+  </si>
+  <si>
+    <t>fx_a_select_yhzq</t>
+  </si>
+  <si>
+    <t>fx_a_select_xyj</t>
+  </si>
+  <si>
+    <t>fx_a_select_pf</t>
+  </si>
+  <si>
+    <t>fx_a_select_jlq</t>
+  </si>
+  <si>
+    <t>SelectFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,58 +325,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,255,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGroundImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>panel_A1001ldj_01</t>
-  </si>
-  <si>
-    <t>panel_A1002lszc_01</t>
-  </si>
-  <si>
-    <t>panel_A1003ygdg_01</t>
-  </si>
-  <si>
-    <t>panel_A1004pf_01</t>
-  </si>
-  <si>
-    <t>panel_A1005szj_01</t>
-  </si>
-  <si>
-    <t>panel_A1007jlq_01</t>
-  </si>
-  <si>
-    <t>panel_A1008xyj_01</t>
-  </si>
-  <si>
-    <t>panel_A1010yhzq_01</t>
-  </si>
-  <si>
-    <t>panel_A1006wxst_01</t>
-  </si>
-  <si>
-    <t>panel_A1009hjsy_01</t>
+    <t>选择时的特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,84,154,80|47,122,255,128|0,98,255,60</t>
+  </si>
+  <si>
+    <t>0,115,120,80|117,235,255,128|0,87,255,60</t>
+  </si>
+  <si>
+    <t>251,251,130,80|255,250,131,128|255,209,0,60</t>
   </si>
 </sst>
 </file>
@@ -656,13 +708,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:K15"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -675,11 +727,12 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -702,16 +755,19 @@
         <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,16 +790,19 @@
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,16 +825,19 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -798,21 +860,24 @@
         <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -838,13 +903,16 @@
         <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -855,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
@@ -870,13 +938,16 @@
         <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -887,7 +958,7 @@
         <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -902,13 +973,16 @@
         <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -919,7 +993,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -934,13 +1008,16 @@
         <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -951,7 +1028,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -966,15 +1043,18 @@
         <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -983,7 +1063,7 @@
         <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -998,13 +1078,16 @@
         <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1018,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1033,13 +1116,16 @@
         <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
@@ -1068,13 +1154,16 @@
         <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1100,13 +1189,16 @@
         <v>80</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
@@ -1135,10 +1227,13 @@
         <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
